--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389558.6470318069</v>
+        <v>403285.005169225</v>
       </c>
     </row>
     <row r="7">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="D2" t="n">
         <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="M2" t="n">
         <v>148616.7125948226</v>
@@ -26353,7 +26355,7 @@
         <v>148616.7125948226</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="F4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="G4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="H4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="I4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="J4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="K4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="L4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="M4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="N4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="O4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="P4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434369</v>
+        <v>31286.06023434384</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434369</v>
+        <v>31286.06023434361</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434369</v>
+        <v>31286.06023434373</v>
       </c>
       <c r="E6" t="n">
-        <v>-61360.75551432538</v>
+        <v>-61360.75551432548</v>
       </c>
       <c r="F6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="G6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567462</v>
       </c>
       <c r="H6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="I6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="J6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="K6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="L6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="M6" t="n">
-        <v>71739.24448567457</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="N6" t="n">
-        <v>71739.24448567457</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="O6" t="n">
-        <v>71739.24448567457</v>
+        <v>71739.24448567459</v>
       </c>
       <c r="P6" t="n">
-        <v>71739.24448567463</v>
+        <v>71739.24448567462</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>403285.005169225</v>
+        <v>319499.6034076</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
         <v>532529.6201660748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434384</v>
+        <v>31241.9244556626</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434361</v>
+        <v>31241.92445566249</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434373</v>
+        <v>31241.9244556626</v>
       </c>
       <c r="E6" t="n">
-        <v>-61360.75551432548</v>
+        <v>-76170.77235343939</v>
       </c>
       <c r="F6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="G6" t="n">
-        <v>71739.24448567462</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="H6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="I6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="J6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="K6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="L6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="M6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="N6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="O6" t="n">
-        <v>71739.24448567459</v>
+        <v>56929.22764656068</v>
       </c>
       <c r="P6" t="n">
-        <v>71739.24448567462</v>
+        <v>56929.22764656068</v>
       </c>
     </row>
   </sheetData>
